--- a/index.xlsx
+++ b/index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bej68982 1/GitHub/benjamin-john.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bej68982 1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1831,13 +1831,15 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="mage result for to do list icon free"/>
+        <xdr:cNvPr id="32" name="Picture 31" descr="mage result for to do list icon free">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1895,13 +1897,15 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="mage result for spotify icon png"/>
+        <xdr:cNvPr id="45" name="Picture 44" descr="mage result for spotify icon png">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bej68982 1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bej68982 1/GitHub/benjamin-john.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,6 @@
     <t>NotePad</t>
   </si>
   <si>
-    <t>Verizon</t>
-  </si>
-  <si>
     <t>Equipment Checkout</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Spotify</t>
+  </si>
+  <si>
+    <t>ReadyCLOUD</t>
   </si>
 </sst>
 </file>
@@ -1290,20 +1290,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49" descr="mage result for weather icon">
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="mage result for google maps icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1325,7 +1325,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4127500" y="5080000"/>
+          <a:off x="9080500" y="3454400"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1356,20 +1356,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50" descr="mage result for google maps icon">
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="mage result for youtube icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1391,7 +1391,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9080500" y="3454400"/>
+          <a:off x="5778500" y="5080000"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1422,20 +1422,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52" descr="mage result for youtube icon">
+        <xdr:cNvPr id="54" name="Picture 53" descr="mage result for netflix icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1457,7 +1457,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5778500" y="5080000"/>
+          <a:off x="7429500" y="5080000"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1488,20 +1488,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="mage result for netflix icon">
+        <xdr:cNvPr id="55" name="Picture 54" descr="mage result for facebook icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1523,7 +1523,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="5080000"/>
+          <a:off x="9080500" y="5080000"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1554,20 +1554,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54" descr="mage result for facebook icon">
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="mage result for bethel university icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1589,7 +1589,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9080500" y="5080000"/>
+          <a:off x="10731500" y="406400"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1622,18 +1622,18 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="mage result for bethel university icon">
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="mage result for craigslist icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1655,7 +1655,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10731500" y="406400"/>
+          <a:off x="10731500" y="5283200"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1686,20 +1686,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="mage result for craigslist icon">
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="mage result for to do list icon free">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1721,7 +1721,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10731500" y="5283200"/>
+          <a:off x="9080500" y="2032000"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1752,20 +1752,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="mage result for verizon icon">
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="mage result for spotify icon png">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1787,7 +1787,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10731500" y="2032000"/>
+          <a:off x="4432300" y="5283200"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1818,20 +1818,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="mage result for to do list icon free">
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="mage result for weather icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1853,7 +1853,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9080500" y="2032000"/>
+          <a:off x="11036300" y="3657600"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1886,18 +1886,18 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="mage result for spotify icon png">
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="mage result for cloud storage icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1919,22 +1919,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10731500" y="3657600"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+          <a:off x="11036300" y="2032000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -2214,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:N32"/>
+  <dimension ref="A8:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2216,7 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,17 +2240,20 @@
       <c r="L8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O8" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -2274,14 +2268,17 @@
         <v>14</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
+      <c r="L16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O16" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2303,39 +2300,44 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1925,7 +1925,16 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -2207,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -104,20 +104,26 @@
     <t>Craigslist</t>
   </si>
   <si>
-    <t>Spotify</t>
-  </si>
-  <si>
     <t>ReadyCLOUD</t>
+  </si>
+  <si>
+    <t>Evernote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1752,20 +1758,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="mage result for spotify icon png">
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="mage result for weather icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1787,7 +1793,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4432300" y="5283200"/>
+          <a:off x="11036300" y="3657600"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1820,18 +1826,18 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="mage result for weather icon">
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="mage result for cloud storage icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1853,7 +1859,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11036300" y="3657600"/>
+          <a:off x="11036300" y="2032000"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1884,20 +1890,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="mage result for cloud storage icon">
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="mage result for evernote icon">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -1919,7 +1925,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11036300" y="2032000"/>
+          <a:off x="4127500" y="5283200"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2214,15 +2220,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A8:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2282,7 +2291,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -2328,7 +2337,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -2349,7 +2358,10 @@
       <c r="O32" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="52" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -2225,13 +2225,13 @@
   </sheetPr>
   <dimension ref="A8:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">

--- a/index.xlsx
+++ b/index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Footprints</t>
   </si>
@@ -62,18 +62,9 @@
     <t>BWSIP</t>
   </si>
   <si>
-    <t>Class Schedule</t>
-  </si>
-  <si>
-    <t>Student Schedule</t>
-  </si>
-  <si>
     <t>NotePad</t>
   </si>
   <si>
-    <t>Equipment Checkout</t>
-  </si>
-  <si>
     <t>Maps</t>
   </si>
   <si>
@@ -108,13 +99,31 @@
   </si>
   <si>
     <t>Evernote</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>More Links</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +133,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,16 +163,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2223,10 +2245,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A8:O32"/>
+  <dimension ref="A8:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2282,7 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O8" s="1"/>
     </row>
@@ -2271,29 +2293,40 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -2318,50 +2351,58 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O24" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O32" s="1"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H35" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -2247,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A8:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
